--- a/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/all_customers_result.xlsx
+++ b/src/net/datenwerke/rs/samples/templates/jxls/jxlsreports/all_customers_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\tmp\jxls\jxlsreports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desktop\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227619DF-647B-42B9-886B-A9740A17D54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A392BEF-59D8-4B3B-AF5C-33F8A3349333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24075" windowHeight="12885" xr2:uid="{1CB611AB-0FA2-4BD9-BB46-7BDCE764CC6B}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>(Version: 1.0.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Last tested with: ReportServer 4.0.0) </t>
-  </si>
-  <si>
     <t>${customer.cus_customername}</t>
+  </si>
+  <si>
+    <t>(Version: 1.0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Last tested with: ReportServer 4.0.0-6053) </t>
   </si>
   <si>
     <t/>
@@ -1024,7 +1024,7 @@
   <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,12 +1845,12 @@
     <row r="102" ht="15.0" customHeight="true"/>
     <row r="103" ht="15.0" customHeight="true">
       <c r="A103" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" ht="15.0" customHeight="true">
       <c r="A104" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
